--- a/documents/candidates.xlsx
+++ b/documents/candidates.xlsx
@@ -1,49 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\nrvasBot\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EC2FDF-AB6E-4379-BA78-05AD6E1B6176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,26 +50,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -336,13 +424,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="18.109375" customWidth="1" min="2" max="5"/>
+    <col width="30.77734375" customWidth="1" min="6" max="6"/>
+    <col width="34.5546875" customWidth="1" min="7" max="7"/>
+    <col width="34.109375" customWidth="1" min="8" max="8"/>
+    <col width="18.109375" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" customFormat="1" customHeight="1" s="3">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Дата рождения</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Военный комиссариат</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Учебное заведение</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Направление подготовки в ВУЗе</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Средний балл по диплому</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+    </row>
+    <row r="25" ht="13.8" customHeight="1">
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Живодовский</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Иванович</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>02.10.2000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ВК Брянской области по г. Брянску</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Брянский государственный технический университет</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>